--- a/h5n1-hpai/STable-X_redfox.xlsx
+++ b/h5n1-hpai/STable-X_redfox.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/tavis_anderson_usda_gov/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tavis.anderson/Desktop/local-repos/datasets/h5n1-hpai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:40009_{D7EB808A-0F3D-DF4B-BA36-EEDA5ABAACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9EF8E8-6E3C-5044-9218-50470BDA33D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D317A3C-2773-A84A-A4DA-A1CC05BC7A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="1740" windowWidth="50980" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,10 +1501,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1804,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
